--- a/data/trans_orig/IP1020-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1020-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8766EB0-EB29-4A2F-AEE6-F7AA3343BF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E94F926-10D2-4752-B717-A5BEC26F0891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E37F1A9A-B108-4762-8AA4-DAFEAE4D6D01}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{86277FF0-6675-4425-9AB9-AA32B5683F93}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,57 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,57 +242,6 @@
     <t>1,44%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
     <t>99,11%</t>
   </si>
   <si>
@@ -347,6 +347,60 @@
     <t>3,9%</t>
   </si>
   <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
     <t>98,89%</t>
   </si>
   <si>
@@ -395,60 +449,6 @@
     <t>2,09%</t>
   </si>
   <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
     <t>98,6%</t>
   </si>
   <si>
@@ -548,6 +548,48 @@
     <t>2,75%</t>
   </si>
   <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
     <t>98,15%</t>
   </si>
   <si>
@@ -584,48 +626,6 @@
     <t>1,59%</t>
   </si>
   <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
     <t>98,29%</t>
   </si>
   <si>
@@ -719,6 +719,60 @@
     <t>5,24%</t>
   </si>
   <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
     <t>96,81%</t>
   </si>
   <si>
@@ -765,60 +819,6 @@
   </si>
   <si>
     <t>4,58%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
   </si>
   <si>
     <t>95,43%</t>
@@ -1258,7 +1258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55D08A5-EB0E-4DB7-B6D4-06B6A3477DE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854988A6-0CEE-4007-B46D-12A92D522482}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1531,10 +1531,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="D7" s="7">
-        <v>279656</v>
+        <v>216825</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1543,37 +1543,37 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7">
+        <v>301</v>
+      </c>
+      <c r="I7" s="7">
+        <v>203138</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="7">
-        <v>391</v>
-      </c>
-      <c r="I7" s="7">
-        <v>263567</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>629</v>
+      </c>
+      <c r="N7" s="7">
+        <v>419963</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="7">
-        <v>810</v>
-      </c>
-      <c r="N7" s="7">
-        <v>543222</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1582,49 +1582,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1842</v>
+        <v>1216</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>2036</v>
+        <v>2084</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>5</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3300</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>6</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3879</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,10 +1633,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1648,10 +1648,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1663,10 +1663,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1680,55 +1680,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>328</v>
+        <v>419</v>
       </c>
       <c r="D10" s="7">
-        <v>216825</v>
+        <v>279656</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>391</v>
+      </c>
+      <c r="I10" s="7">
+        <v>263567</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="7">
-        <v>301</v>
-      </c>
-      <c r="I10" s="7">
-        <v>203138</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>810</v>
+      </c>
+      <c r="N10" s="7">
+        <v>543222</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="7">
-        <v>629</v>
-      </c>
-      <c r="N10" s="7">
-        <v>419963</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,16 +1737,16 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1216</v>
+        <v>1842</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>60</v>
@@ -1755,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>2084</v>
+        <v>2036</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -1767,10 +1767,10 @@
         <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>3300</v>
+        <v>3879</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1788,10 +1788,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1803,10 +1803,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1818,10 +1818,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2004,7 +2004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D902EB9-C6C8-431A-AB2F-C98C02003930}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B826AC-B2A2-41E5-A0A7-4FEE2F3447EE}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2277,10 +2277,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>394</v>
+        <v>326</v>
       </c>
       <c r="D7" s="7">
-        <v>267352</v>
+        <v>235810</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>102</v>
@@ -2289,37 +2289,37 @@
         <v>103</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="H7" s="7">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="I7" s="7">
-        <v>251719</v>
+        <v>220545</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M7" s="7">
-        <v>752</v>
+        <v>635</v>
       </c>
       <c r="N7" s="7">
-        <v>519070</v>
+        <v>456355</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,49 +2328,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>3002</v>
+        <v>4290</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I8" s="7">
-        <v>2483</v>
+        <v>7633</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N8" s="7">
-        <v>5486</v>
+        <v>11923</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,10 +2379,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>270354</v>
+        <v>240100</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2394,10 +2394,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>254202</v>
+        <v>228178</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2409,10 +2409,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>760</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>524556</v>
+        <v>468278</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2426,55 +2426,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>326</v>
+        <v>394</v>
       </c>
       <c r="D10" s="7">
-        <v>235810</v>
+        <v>267352</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="I10" s="7">
-        <v>220545</v>
+        <v>251719</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
-        <v>635</v>
+        <v>752</v>
       </c>
       <c r="N10" s="7">
-        <v>456355</v>
+        <v>519070</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,25 +2483,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>4290</v>
+        <v>3002</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>7633</v>
+        <v>2483</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>130</v>
@@ -2513,10 +2513,10 @@
         <v>132</v>
       </c>
       <c r="M11" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>11923</v>
+        <v>5486</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>133</v>
@@ -2534,10 +2534,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D12" s="7">
-        <v>240100</v>
+        <v>270354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2549,10 +2549,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228178</v>
+        <v>254202</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2564,10 +2564,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>651</v>
+        <v>760</v>
       </c>
       <c r="N12" s="7">
-        <v>468278</v>
+        <v>524556</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2599,7 +2599,7 @@
         <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
         <v>992</v>
@@ -2647,7 +2647,7 @@
         <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>145</v>
@@ -2750,7 +2750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944BA894-56BE-4BC3-8CBE-AB035329C6D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CDE974-909E-4813-ABEC-8BE5228ACB88}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3023,10 +3023,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="D7" s="7">
-        <v>276406</v>
+        <v>245866</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>169</v>
@@ -3035,37 +3035,37 @@
         <v>170</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="7">
+        <v>356</v>
+      </c>
+      <c r="I7" s="7">
+        <v>232860</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="7">
-        <v>370</v>
-      </c>
-      <c r="I7" s="7">
-        <v>264231</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>713</v>
+      </c>
+      <c r="N7" s="7">
+        <v>478726</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M7" s="7">
-        <v>744</v>
-      </c>
-      <c r="N7" s="7">
-        <v>540637</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,49 +3074,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>5223</v>
+        <v>4186</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>177</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>3539</v>
+        <v>2473</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>179</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>8762</v>
+        <v>6659</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>180</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,10 +3125,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3140,10 +3140,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3155,10 +3155,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3172,55 +3172,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="D10" s="7">
-        <v>245866</v>
+        <v>276406</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="I10" s="7">
-        <v>232860</v>
+        <v>264231</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
-        <v>713</v>
+        <v>744</v>
       </c>
       <c r="N10" s="7">
-        <v>478726</v>
+        <v>540637</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,49 +3229,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>4186</v>
+        <v>5223</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>2473</v>
+        <v>3539</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="M11" s="7">
+        <v>12</v>
+      </c>
+      <c r="N11" s="7">
+        <v>8762</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M11" s="7">
-        <v>10</v>
-      </c>
-      <c r="N11" s="7">
-        <v>6659</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,10 +3280,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3295,10 +3295,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3310,10 +3310,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3354,7 +3354,7 @@
         <v>695098</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>198</v>
@@ -3405,7 +3405,7 @@
         <v>9273</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>205</v>
@@ -3496,7 +3496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91604DBD-4E34-41EC-9455-45FE89FBEC73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4873DF20-D9BB-41FF-97A5-4AF7C21E736A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3656,7 +3656,7 @@
         <v>217</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,7 +3704,7 @@
         <v>224</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>225</v>
@@ -3769,10 +3769,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>462</v>
+        <v>262</v>
       </c>
       <c r="D7" s="7">
-        <v>389845</v>
+        <v>197630</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>226</v>
@@ -3784,10 +3784,10 @@
         <v>228</v>
       </c>
       <c r="H7" s="7">
-        <v>446</v>
+        <v>271</v>
       </c>
       <c r="I7" s="7">
-        <v>338843</v>
+        <v>190804</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>229</v>
@@ -3796,22 +3796,22 @@
         <v>230</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="M7" s="7">
-        <v>908</v>
+        <v>533</v>
       </c>
       <c r="N7" s="7">
-        <v>728690</v>
+        <v>388435</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,49 +3820,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>12865</v>
+        <v>7425</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I8" s="7">
-        <v>11965</v>
+        <v>7463</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M8" s="7">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N8" s="7">
-        <v>24829</v>
+        <v>14888</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,10 +3871,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3886,10 +3886,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>462</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>350808</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3901,10 +3901,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>941</v>
+        <v>552</v>
       </c>
       <c r="N9" s="7">
-        <v>753519</v>
+        <v>403323</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3918,55 +3918,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>262</v>
+        <v>462</v>
       </c>
       <c r="D10" s="7">
-        <v>197630</v>
+        <v>389845</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H10" s="7">
-        <v>271</v>
+        <v>446</v>
       </c>
       <c r="I10" s="7">
-        <v>190804</v>
+        <v>338843</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
-        <v>533</v>
+        <v>908</v>
       </c>
       <c r="N10" s="7">
-        <v>388435</v>
+        <v>728690</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,40 +3975,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>7425</v>
+        <v>12865</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I11" s="7">
-        <v>7463</v>
+        <v>11965</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>255</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>256</v>
       </c>
       <c r="M11" s="7">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N11" s="7">
-        <v>14888</v>
+        <v>24829</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>257</v>
@@ -4026,10 +4026,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D12" s="7">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4041,10 +4041,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4056,10 +4056,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>552</v>
+        <v>941</v>
       </c>
       <c r="N12" s="7">
-        <v>403323</v>
+        <v>753519</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4085,7 +4085,7 @@
         <v>701730</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>260</v>
@@ -4136,7 +4136,7 @@
         <v>23974</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>268</v>

--- a/data/trans_orig/IP1020-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1020-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E94F926-10D2-4752-B717-A5BEC26F0891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D98E0F0A-37CD-4A74-900D-20566CF4F7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{86277FF0-6675-4425-9AB9-AA32B5683F93}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A7988B12-48B3-4D3C-835B-882942E17D08}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="293">
   <si>
     <t>Menores según si padecen trastornos crónicos de la piel en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,805 +68,856 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>96,7%</t>
   </si>
   <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>96,52%</t>
   </si>
   <si>
-    <t>95,04%</t>
-  </si>
-  <si>
     <t>97,62%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>95,74%</t>
   </si>
 </sst>
 </file>
@@ -877,7 +928,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -973,39 +1024,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1057,7 +1108,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1168,13 +1219,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1183,6 +1227,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1247,19 +1298,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854988A6-0CEE-4007-B46D-12A92D522482}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E48FBA0-BD23-4D6E-935E-8889B903F107}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1376,10 +1447,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>329</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>219767</v>
+        <v>2721</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1391,10 +1462,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>208929</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1406,10 +1477,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>647</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>428695</v>
+        <v>2721</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1427,10 +1498,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>178</v>
       </c>
       <c r="D5" s="7">
-        <v>3394</v>
+        <v>118659</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1442,10 +1513,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="I5" s="7">
-        <v>1267</v>
+        <v>106171</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1457,10 +1528,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>340</v>
       </c>
       <c r="N5" s="7">
-        <v>4662</v>
+        <v>224830</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1478,102 +1549,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>328</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>216825</v>
+        <v>1890</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2573</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="7">
-        <v>301</v>
-      </c>
-      <c r="I7" s="7">
-        <v>203138</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>7</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4463</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="7">
-        <v>629</v>
-      </c>
-      <c r="N7" s="7">
-        <v>419963</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1582,49 +1653,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>379</v>
       </c>
       <c r="D8" s="7">
-        <v>1216</v>
+        <v>251866</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>375</v>
+      </c>
+      <c r="I8" s="7">
+        <v>250632</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2084</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>754</v>
+      </c>
+      <c r="N8" s="7">
+        <v>502498</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="7">
-        <v>5</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3300</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,102 +1704,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>279656</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1439</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1439</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="7">
-        <v>391</v>
-      </c>
-      <c r="I10" s="7">
-        <v>263567</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="7">
-        <v>810</v>
-      </c>
-      <c r="N10" s="7">
-        <v>543222</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,49 +1808,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="D11" s="7">
-        <v>1842</v>
+        <v>141515</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="I11" s="7">
-        <v>2036</v>
+        <v>126109</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>401</v>
       </c>
       <c r="N11" s="7">
-        <v>3879</v>
+        <v>267624</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,102 +1859,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1076</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>716247</v>
+        <v>1842</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
-        <v>1010</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>675634</v>
+        <v>1375</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
-        <v>2086</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>1391881</v>
+        <v>3217</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,49 +1963,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>307</v>
       </c>
       <c r="D14" s="7">
-        <v>6453</v>
+        <v>204207</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>284</v>
       </c>
       <c r="I14" s="7">
-        <v>5387</v>
+        <v>192722</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="M14" s="7">
-        <v>18</v>
+        <v>591</v>
       </c>
       <c r="N14" s="7">
-        <v>11840</v>
+        <v>396929</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,55 +2014,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6453</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="7">
+        <v>8</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5387</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="7">
+        <v>18</v>
+      </c>
+      <c r="N16" s="7">
+        <v>11840</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1076</v>
+      </c>
+      <c r="D17" s="7">
+        <v>716247</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1010</v>
+      </c>
+      <c r="I17" s="7">
+        <v>675634</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2086</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1391881</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2004,8 +2236,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B826AC-B2A2-41E5-A0A7-4FEE2F3447EE}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA71F98-CCDC-4E96-ABAC-F623B79AEA4D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2021,7 +2253,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2122,49 +2354,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>331</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>234507</v>
+        <v>1288</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
-        <v>325</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>216387</v>
+        <v>5716</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
-        <v>656</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>450893</v>
+        <v>7004</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,49 +2405,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="D5" s="7">
-        <v>3181</v>
+        <v>143225</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I5" s="7">
-        <v>8161</v>
+        <v>140565</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
-        <v>17</v>
+        <v>413</v>
       </c>
       <c r="N5" s="7">
-        <v>11343</v>
+        <v>283790</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,78 +2456,78 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D6" s="7">
-        <v>237688</v>
+        <v>144513</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="I6" s="7">
-        <v>224548</v>
+        <v>146281</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>673</v>
+        <v>423</v>
       </c>
       <c r="N6" s="7">
-        <v>462236</v>
+        <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>326</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>235810</v>
+        <v>5516</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H7" s="7">
-        <v>309</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>220545</v>
+        <v>9403</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>105</v>
@@ -2307,10 +2539,10 @@
         <v>107</v>
       </c>
       <c r="M7" s="7">
-        <v>635</v>
+        <v>21</v>
       </c>
       <c r="N7" s="7">
-        <v>456355</v>
+        <v>14919</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>108</v>
@@ -2328,49 +2560,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="D8" s="7">
-        <v>4290</v>
+        <v>261585</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>324</v>
+      </c>
+      <c r="I8" s="7">
+        <v>225073</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="7">
-        <v>10</v>
-      </c>
-      <c r="I8" s="7">
-        <v>7633</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>687</v>
+      </c>
+      <c r="N8" s="7">
+        <v>486657</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M8" s="7">
-        <v>16</v>
-      </c>
-      <c r="N8" s="7">
-        <v>11923</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,102 +2611,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>240100</v>
+        <v>267101</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>228178</v>
+        <v>234476</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>468278</v>
+        <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>394</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>267352</v>
+        <v>2903</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1885</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="7">
-        <v>358</v>
-      </c>
-      <c r="I10" s="7">
-        <v>251719</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>7</v>
+      </c>
+      <c r="N10" s="7">
+        <v>4788</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M10" s="7">
-        <v>752</v>
-      </c>
-      <c r="N10" s="7">
-        <v>519070</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,49 +2715,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>224</v>
       </c>
       <c r="D11" s="7">
-        <v>3002</v>
+        <v>155668</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="7">
+        <v>217</v>
+      </c>
+      <c r="I11" s="7">
+        <v>152949</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2483</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="7">
+        <v>441</v>
+      </c>
+      <c r="N11" s="7">
+        <v>308617</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="M11" s="7">
-        <v>8</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5486</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,102 +2766,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>270354</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>254202</v>
+        <v>154834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>760</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>524556</v>
+        <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1051</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>737669</v>
+        <v>767</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1273</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" s="7">
+        <v>3</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2040</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="7">
-        <v>992</v>
-      </c>
-      <c r="I13" s="7">
-        <v>688650</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2043</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1426319</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,49 +2870,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>261</v>
       </c>
       <c r="D14" s="7">
-        <v>10473</v>
+        <v>177190</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="H14" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I14" s="7">
-        <v>18278</v>
+        <v>170064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="M14" s="7">
-        <v>41</v>
+        <v>502</v>
       </c>
       <c r="N14" s="7">
-        <v>28751</v>
+        <v>347254</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,55 +2921,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="7">
+        <v>505</v>
+      </c>
+      <c r="N15" s="7">
+        <v>349294</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7">
+        <v>10473</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="7">
+        <v>26</v>
+      </c>
+      <c r="I16" s="7">
+        <v>18278</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" s="7">
+        <v>41</v>
+      </c>
+      <c r="N16" s="7">
+        <v>28751</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1051</v>
+      </c>
+      <c r="D17" s="7">
+        <v>737669</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="7">
+        <v>992</v>
+      </c>
+      <c r="I17" s="7">
+        <v>688650</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2043</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1426319</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1066</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>748142</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>706928</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="7">
         <v>2084</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1455070</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2750,8 +3143,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CDE974-909E-4813-ABEC-8BE5228ACB88}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DFA73B-183E-4B68-A254-F8334CCF5D72}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2767,7 +3160,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2868,49 +3261,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>316</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>209867</v>
+        <v>2604</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
-        <v>320</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>198007</v>
+        <v>1794</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
-        <v>636</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>407874</v>
+        <v>4398</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,49 +3312,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>183</v>
       </c>
       <c r="D5" s="7">
-        <v>3296</v>
+        <v>121560</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="I5" s="7">
-        <v>3261</v>
+        <v>129860</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>391</v>
       </c>
       <c r="N5" s="7">
-        <v>6557</v>
+        <v>251420</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,102 +3363,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>357</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>245866</v>
+        <v>4208</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
-        <v>356</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>232860</v>
+        <v>3305</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
-        <v>713</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>478726</v>
+        <v>7512</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,49 +3467,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>374</v>
       </c>
       <c r="D8" s="7">
-        <v>4186</v>
+        <v>253853</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>326</v>
       </c>
       <c r="I8" s="7">
-        <v>2473</v>
+        <v>207212</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="N8" s="7">
-        <v>6659</v>
+        <v>461066</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,102 +3518,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>374</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>276406</v>
+        <v>3148</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H10" s="7">
-        <v>370</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>264231</v>
+        <v>2123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
-        <v>744</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>540637</v>
+        <v>5272</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,49 +3622,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>259</v>
       </c>
       <c r="D11" s="7">
-        <v>5223</v>
+        <v>185424</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>269</v>
       </c>
       <c r="I11" s="7">
-        <v>3539</v>
+        <v>186776</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>528</v>
       </c>
       <c r="N11" s="7">
-        <v>8762</v>
+        <v>372199</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,102 +3673,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1047</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>732138</v>
+        <v>2745</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
-        <v>1046</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>695098</v>
+        <v>2051</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
-        <v>2093</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>1427237</v>
+        <v>4796</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,49 +3777,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="D14" s="7">
-        <v>12706</v>
+        <v>171303</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="I14" s="7">
-        <v>9273</v>
+        <v>171250</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="7">
+        <v>474</v>
+      </c>
+      <c r="N14" s="7">
+        <v>342552</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="M14" s="7">
-        <v>33</v>
-      </c>
-      <c r="N14" s="7">
-        <v>21978</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>207</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>208</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,55 +3828,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
+        <v>246</v>
+      </c>
+      <c r="I15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="7">
+        <v>481</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>18</v>
+      </c>
+      <c r="D16" s="7">
+        <v>12706</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" s="7">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7">
+        <v>9273</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M16" s="7">
+        <v>33</v>
+      </c>
+      <c r="N16" s="7">
+        <v>21978</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1047</v>
+      </c>
+      <c r="D17" s="7">
+        <v>732138</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1046</v>
+      </c>
+      <c r="I17" s="7">
+        <v>695098</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2093</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1427237</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>1061</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>704371</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="7">
         <v>2126</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1449215</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3496,8 +4050,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4873DF20-D9BB-41FF-97A5-4AF7C21E736A}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B01B77-7C80-411F-AA24-547467E13D78}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3513,7 +4067,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3614,49 +4168,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>114254</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>211</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
-        <v>193</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>100518</v>
+        <v>1810</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>214</v>
+        <v>104</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
-        <v>412</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>214772</v>
+        <v>1810</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>107</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,49 +4219,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="D5" s="7">
-        <v>3684</v>
+        <v>58503</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="I5" s="7">
-        <v>3285</v>
+        <v>55559</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="7">
         <v>222</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M5" s="7">
-        <v>14</v>
-      </c>
       <c r="N5" s="7">
-        <v>6969</v>
+        <v>114061</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,102 +4270,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I6" s="7">
-        <v>103803</v>
+        <v>57369</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>426</v>
+        <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>221741</v>
+        <v>115871</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>262</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>197630</v>
+        <v>8604</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
-        <v>271</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>190804</v>
+        <v>5853</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
-        <v>533</v>
+        <v>23</v>
       </c>
       <c r="N7" s="7">
-        <v>388435</v>
+        <v>14457</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,49 +4374,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>262</v>
       </c>
       <c r="D8" s="7">
-        <v>7425</v>
+        <v>166695</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>249</v>
       </c>
       <c r="I8" s="7">
-        <v>7463</v>
+        <v>152912</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>511</v>
       </c>
       <c r="N8" s="7">
-        <v>14888</v>
+        <v>319606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,102 +4425,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D9" s="7">
-        <v>205055</v>
+        <v>175299</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>403323</v>
+        <v>334063</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>462</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>389845</v>
+        <v>9659</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
-        <v>446</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>338843</v>
+        <v>6716</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>248</v>
+        <v>91</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
-        <v>908</v>
+        <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>728690</v>
+        <v>16375</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,49 +4529,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="D11" s="7">
-        <v>12865</v>
+        <v>192819</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H11" s="7">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="I11" s="7">
-        <v>11965</v>
+        <v>169397</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>99</v>
       </c>
       <c r="M11" s="7">
-        <v>33</v>
+        <v>455</v>
       </c>
       <c r="N11" s="7">
-        <v>24829</v>
+        <v>362216</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,102 +4580,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>350808</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>941</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>753519</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>943</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>701730</v>
+        <v>5711</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
-        <v>910</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>630166</v>
+        <v>8333</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
-        <v>1853</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>1331896</v>
+        <v>14044</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,49 +4684,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>34</v>
+        <v>334</v>
       </c>
       <c r="D14" s="7">
-        <v>23974</v>
+        <v>283713</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
-        <v>32</v>
+        <v>331</v>
       </c>
       <c r="I14" s="7">
-        <v>22713</v>
+        <v>252300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>178</v>
       </c>
       <c r="M14" s="7">
-        <v>66</v>
+        <v>665</v>
       </c>
       <c r="N14" s="7">
-        <v>46687</v>
+        <v>536013</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,55 +4735,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="7">
+        <v>684</v>
+      </c>
+      <c r="N15" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7">
+        <v>23974</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H16" s="7">
+        <v>32</v>
+      </c>
+      <c r="I16" s="7">
+        <v>22713</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M16" s="7">
+        <v>66</v>
+      </c>
+      <c r="N16" s="7">
+        <v>46687</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>943</v>
+      </c>
+      <c r="D17" s="7">
+        <v>701730</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17" s="7">
+        <v>910</v>
+      </c>
+      <c r="I17" s="7">
+        <v>630166</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1853</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1331896</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>977</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>725704</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="7">
         <v>942</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>652879</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="7">
         <v>1919</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1378583</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP1020-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1020-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D98E0F0A-37CD-4A74-900D-20566CF4F7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{561CDC20-174B-43F6-890C-13280DE2E4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A7988B12-48B3-4D3C-835B-882942E17D08}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EAFD6CCB-A05A-4BF9-95E5-F5C715D34190}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="305">
   <si>
     <t>Menores según si padecen trastornos crónicos de la piel en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,56%</t>
   </si>
   <si>
-    <t>5,01%</t>
+    <t>5,57%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -98,7 +98,7 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>2,98%</t>
+    <t>2,71%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>97,76%</t>
   </si>
   <si>
-    <t>94,99%</t>
+    <t>94,43%</t>
   </si>
   <si>
     <t>99,44%</t>
@@ -125,7 +125,7 @@
     <t>98,8%</t>
   </si>
   <si>
-    <t>97,02%</t>
+    <t>97,29%</t>
   </si>
   <si>
     <t>99,7%</t>
@@ -137,16 +137,19 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>0,24%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>0,88%</t>
@@ -155,28 +158,31 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,68%</t>
+    <t>1,84%</t>
   </si>
   <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>99,76%</t>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>98,32%</t>
+    <t>98,16%</t>
   </si>
   <si>
     <t>99,62%</t>
@@ -191,13 +197,13 @@
     <t>1,13%</t>
   </si>
   <si>
-    <t>3,61%</t>
+    <t>4,13%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,87%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>99,1%</t>
@@ -206,13 +212,13 @@
     <t>98,87%</t>
   </si>
   <si>
-    <t>96,39%</t>
+    <t>95,87%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,13%</t>
+    <t>98,33%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -221,703 +227,733 @@
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
+    <t>2,42%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>2,39%</t>
+    <t>2,31%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
     <t>0,43%</t>
   </si>
   <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>95,38%</t>
   </si>
   <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>97,62%</t>
   </si>
   <si>
     <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E48FBA0-BD23-4D6E-935E-8889B903F107}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56A92CB-FBC1-4CBD-9A9D-A5C413C61A7A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1614,7 +1650,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -1623,13 +1659,13 @@
         <v>2573</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -1638,13 +1674,13 @@
         <v>4463</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1695,13 @@
         <v>251866</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>375</v>
@@ -1674,13 +1710,13 @@
         <v>250632</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>754</v>
@@ -1689,13 +1725,13 @@
         <v>502498</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,7 +1787,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1769,7 +1805,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1778,13 +1814,13 @@
         <v>1439</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1793,13 +1829,13 @@
         <v>1439</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,7 +1853,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -1829,10 +1865,10 @@
         <v>126109</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>24</v>
@@ -1844,10 +1880,10 @@
         <v>267624</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>24</v>
@@ -1906,7 +1942,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1918,13 +1954,13 @@
         <v>1842</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1933,13 +1969,13 @@
         <v>1375</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1948,13 +1984,13 @@
         <v>3217</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +2005,13 @@
         <v>204207</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="H14" s="7">
         <v>284</v>
@@ -1984,10 +2020,10 @@
         <v>192722</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>24</v>
@@ -1999,13 +2035,13 @@
         <v>396929</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,13 +2109,13 @@
         <v>6453</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2088,13 +2124,13 @@
         <v>5387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -2103,13 +2139,13 @@
         <v>11840</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,13 +2160,13 @@
         <v>716247</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>1010</v>
@@ -2139,13 +2175,13 @@
         <v>675634</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>2086</v>
@@ -2154,13 +2190,13 @@
         <v>1391881</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,7 +2252,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2236,7 +2272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA71F98-CCDC-4E96-ABAC-F623B79AEA4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84A6A82-E4C8-401E-94BC-8156B5967D3D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2253,7 +2289,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2360,13 +2396,13 @@
         <v>1288</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -2375,13 +2411,13 @@
         <v>5716</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2390,13 +2426,13 @@
         <v>7004</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,10 +2447,10 @@
         <v>143225</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -2426,13 +2462,13 @@
         <v>140565</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>413</v>
@@ -2441,13 +2477,13 @@
         <v>283790</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2551,13 @@
         <v>5516</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -2530,13 +2566,13 @@
         <v>9403</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -2545,13 +2581,13 @@
         <v>14919</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,13 +2602,13 @@
         <v>261585</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>324</v>
@@ -2581,13 +2617,13 @@
         <v>225073</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>687</v>
@@ -2596,13 +2632,13 @@
         <v>486657</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,7 +2694,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2670,13 +2706,13 @@
         <v>2903</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2685,13 +2721,13 @@
         <v>1885</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2700,13 +2736,13 @@
         <v>4788</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2757,13 @@
         <v>155668</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H11" s="7">
         <v>217</v>
@@ -2736,10 +2772,10 @@
         <v>152949</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>29</v>
@@ -2751,13 +2787,13 @@
         <v>308617</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,7 +2849,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2825,13 +2861,13 @@
         <v>767</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2846,7 +2882,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2855,13 +2891,13 @@
         <v>2040</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,10 +2912,10 @@
         <v>177190</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>24</v>
@@ -2891,10 +2927,10 @@
         <v>170064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>24</v>
@@ -2906,13 +2942,13 @@
         <v>347254</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +3016,13 @@
         <v>10473</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -2995,13 +3031,13 @@
         <v>18278</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -3010,13 +3046,13 @@
         <v>28751</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3067,13 @@
         <v>737669</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>992</v>
@@ -3046,13 +3082,13 @@
         <v>688650</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>2043</v>
@@ -3061,13 +3097,13 @@
         <v>1426319</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,7 +3159,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3143,7 +3179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DFA73B-183E-4B68-A254-F8334CCF5D72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC1344D-957B-4141-AC9B-11088281D05D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3160,7 +3196,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3267,13 +3303,13 @@
         <v>2604</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3282,13 +3318,13 @@
         <v>1794</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3297,13 +3333,13 @@
         <v>4398</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,13 +3354,13 @@
         <v>121560</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="H5" s="7">
         <v>208</v>
@@ -3333,13 +3369,13 @@
         <v>129860</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>391</v>
@@ -3348,13 +3384,13 @@
         <v>251420</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3458,13 @@
         <v>4208</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3437,13 +3473,13 @@
         <v>3305</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -3452,13 +3488,13 @@
         <v>7512</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3509,13 @@
         <v>253853</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>326</v>
@@ -3488,13 +3524,13 @@
         <v>207212</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>700</v>
@@ -3503,13 +3539,13 @@
         <v>461066</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,7 +3601,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3577,13 +3613,13 @@
         <v>3148</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3592,13 +3628,13 @@
         <v>2123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3607,13 +3643,13 @@
         <v>5272</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3664,13 @@
         <v>185424</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="H11" s="7">
         <v>269</v>
@@ -3643,13 +3679,13 @@
         <v>186776</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>528</v>
@@ -3658,13 +3694,13 @@
         <v>372199</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,7 +3756,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3732,13 +3768,13 @@
         <v>2745</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3750,10 +3786,10 @@
         <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3762,13 +3798,13 @@
         <v>4796</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,13 +3819,13 @@
         <v>171303</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -3801,10 +3837,10 @@
         <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
         <v>474</v>
@@ -3813,13 +3849,13 @@
         <v>342552</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3923,13 @@
         <v>12706</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -3902,13 +3938,13 @@
         <v>9273</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -3917,13 +3953,13 @@
         <v>21978</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,13 +3974,13 @@
         <v>732138</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="H17" s="7">
         <v>1046</v>
@@ -3953,13 +3989,13 @@
         <v>695098</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>2093</v>
@@ -3968,13 +4004,13 @@
         <v>1427237</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,7 +4066,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4050,7 +4086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B01B77-7C80-411F-AA24-547467E13D78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475743C6-FE39-4C30-84DD-FFD15D9EE7E7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4067,7 +4103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4180,7 +4216,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4189,13 +4225,13 @@
         <v>1810</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4204,13 +4240,13 @@
         <v>1810</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,7 +4264,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -4240,13 +4276,13 @@
         <v>55559</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>112</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>222</v>
@@ -4255,13 +4291,13 @@
         <v>114061</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>127</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4365,13 @@
         <v>8604</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4344,13 +4380,13 @@
         <v>5853</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>23</v>
@@ -4359,13 +4395,13 @@
         <v>14457</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,13 +4416,13 @@
         <v>166695</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>249</v>
@@ -4395,13 +4431,13 @@
         <v>152912</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>511</v>
@@ -4410,13 +4446,13 @@
         <v>319606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,7 +4508,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4484,13 +4520,13 @@
         <v>9659</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4499,13 +4535,13 @@
         <v>6716</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>91</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -4514,13 +4550,13 @@
         <v>16375</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4571,13 @@
         <v>192819</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>224</v>
@@ -4550,13 +4586,13 @@
         <v>169397</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>455</v>
@@ -4565,13 +4601,13 @@
         <v>362216</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,7 +4663,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4639,13 +4675,13 @@
         <v>5711</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -4654,13 +4690,13 @@
         <v>8333</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -4669,13 +4705,13 @@
         <v>14044</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,13 +4726,13 @@
         <v>283713</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>331</v>
@@ -4705,13 +4741,13 @@
         <v>252300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>665</v>
@@ -4720,13 +4756,13 @@
         <v>536013</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4830,13 @@
         <v>23974</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -4809,13 +4845,13 @@
         <v>22713</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>125</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -4824,13 +4860,13 @@
         <v>46687</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4881,13 @@
         <v>701730</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>910</v>
@@ -4860,13 +4896,13 @@
         <v>630166</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>1853</v>
@@ -4875,13 +4911,13 @@
         <v>1331896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,7 +4973,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1020-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP1020-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{561CDC20-174B-43F6-890C-13280DE2E4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E0FBCF-817F-4B19-9395-BA6A02CD57F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EAFD6CCB-A05A-4BF9-95E5-F5C715D34190}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{53D84B16-FB73-4486-B65D-61390807C3DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>Menores según si padecen trastornos crónicos de la piel en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,6 +74,15 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>2,24%</t>
   </si>
   <si>
@@ -83,27 +92,27 @@
     <t>5,57%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>1,2%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>2,97%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>97,76%</t>
   </si>
   <si>
@@ -113,19 +122,10 @@
     <t>99,44%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>97,29%</t>
+    <t>97,03%</t>
   </si>
   <si>
     <t>99,7%</t>
@@ -134,826 +134,826 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
     <t>0,74%</t>
   </si>
   <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
     <t>0,23%</t>
   </si>
   <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
   <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
   </si>
   <si>
     <t>98,33%</t>
   </si>
   <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56A92CB-FBC1-4CBD-9A9D-A5C413C61A7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0452A3A-CD4D-4E8E-A97B-CD87CB4EF3D2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1483,10 +1483,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2721</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1498,10 +1498,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2721</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1534,10 +1534,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>118659</v>
+        <v>106171</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1549,10 +1549,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="I5" s="7">
-        <v>106171</v>
+        <v>118659</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1585,34 +1585,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>344</v>
@@ -1621,13 +1621,13 @@
         <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1638,10 +1638,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>1890</v>
+        <v>2573</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>31</v>
@@ -1653,10 +1653,10 @@
         <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>2573</v>
+        <v>1890</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -1689,10 +1689,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D8" s="7">
-        <v>251866</v>
+        <v>250632</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1704,10 +1704,10 @@
         <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="I8" s="7">
-        <v>250632</v>
+        <v>251866</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -1740,34 +1740,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>761</v>
@@ -1776,13 +1776,13 @@
         <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1793,31 +1793,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1439</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1439</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>52</v>
@@ -1832,7 +1832,7 @@
         <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>54</v>
@@ -1844,34 +1844,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>189</v>
+      </c>
+      <c r="D11" s="7">
+        <v>126109</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7">
         <v>212</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>141515</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="7">
-        <v>189</v>
-      </c>
-      <c r="I11" s="7">
-        <v>126109</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>401</v>
@@ -1886,7 +1886,7 @@
         <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1895,34 +1895,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>403</v>
@@ -1931,13 +1931,13 @@
         <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1948,31 +1948,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1842</v>
+        <v>1375</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1842</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1375</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>64</v>
@@ -1999,34 +1999,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="D14" s="7">
-        <v>204207</v>
+        <v>192722</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
+        <v>307</v>
+      </c>
+      <c r="I14" s="7">
+        <v>204207</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="7">
-        <v>284</v>
-      </c>
-      <c r="I14" s="7">
-        <v>192722</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="M14" s="7">
         <v>591</v>
@@ -2050,34 +2050,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>596</v>
@@ -2086,13 +2086,13 @@
         <v>400146</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2103,34 +2103,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5387</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="7">
         <v>10</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>6453</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5387</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -2139,13 +2139,13 @@
         <v>11840</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2154,13 +2154,13 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1076</v>
+        <v>1010</v>
       </c>
       <c r="D17" s="7">
-        <v>716247</v>
+        <v>675634</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>83</v>
@@ -2169,19 +2169,19 @@
         <v>84</v>
       </c>
       <c r="H17" s="7">
-        <v>1010</v>
+        <v>1076</v>
       </c>
       <c r="I17" s="7">
-        <v>675634</v>
+        <v>716247</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>2086</v>
@@ -2190,13 +2190,13 @@
         <v>1391881</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,34 +2205,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>2104</v>
@@ -2241,18 +2241,18 @@
         <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2272,7 +2272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84A6A82-E4C8-401E-94BC-8156B5967D3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAAF1AD-2108-4A59-B22C-A1BEC60C416A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2289,7 +2289,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2390,34 +2390,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5716</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1288</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="H4" s="7">
-        <v>8</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5716</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2426,13 +2426,13 @@
         <v>7004</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,34 +2441,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>210</v>
+      </c>
+      <c r="D5" s="7">
+        <v>140565</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="7">
         <v>203</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>143225</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="7">
-        <v>210</v>
-      </c>
-      <c r="I5" s="7">
-        <v>140565</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>413</v>
@@ -2477,13 +2477,13 @@
         <v>283790</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,34 +2492,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146281</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>205</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>144513</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>218</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146281</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>423</v>
@@ -2528,13 +2528,13 @@
         <v>290794</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,34 +2545,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9403</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="7">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>5516</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="7">
-        <v>13</v>
-      </c>
-      <c r="I7" s="7">
-        <v>9403</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -2581,13 +2581,13 @@
         <v>14919</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,34 +2596,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>324</v>
+      </c>
+      <c r="D8" s="7">
+        <v>225073</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="7">
         <v>363</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>261585</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="7">
-        <v>324</v>
-      </c>
-      <c r="I8" s="7">
-        <v>225073</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>687</v>
@@ -2632,13 +2632,13 @@
         <v>486657</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,34 +2647,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234476</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>267101</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234476</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>708</v>
@@ -2683,13 +2683,13 @@
         <v>501576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,34 +2700,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1885</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>2903</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1885</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -2736,13 +2736,13 @@
         <v>4788</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,34 +2751,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>217</v>
+      </c>
+      <c r="D11" s="7">
+        <v>152949</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="7">
         <v>224</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>155668</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="H11" s="7">
-        <v>217</v>
-      </c>
-      <c r="I11" s="7">
-        <v>152949</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M11" s="7">
         <v>441</v>
@@ -2787,13 +2787,13 @@
         <v>308617</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,34 +2802,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>220</v>
+      </c>
+      <c r="D12" s="7">
+        <v>154834</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7">
-        <v>220</v>
-      </c>
-      <c r="I12" s="7">
-        <v>154834</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>448</v>
@@ -2838,13 +2838,13 @@
         <v>313405</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,34 +2855,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1273</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>767</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1273</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2891,13 +2891,13 @@
         <v>2040</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,34 +2906,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>241</v>
+      </c>
+      <c r="D14" s="7">
+        <v>170064</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
         <v>261</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>177190</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="7">
-        <v>241</v>
-      </c>
-      <c r="I14" s="7">
-        <v>170064</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
         <v>502</v>
@@ -2942,13 +2942,13 @@
         <v>347254</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,34 +2957,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177957</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>505</v>
@@ -2993,13 +2993,13 @@
         <v>349294</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,34 +3010,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>26</v>
+      </c>
+      <c r="D16" s="7">
+        <v>18278</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="7">
         <v>15</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>10473</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="7">
-        <v>26</v>
-      </c>
-      <c r="I16" s="7">
-        <v>18278</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -3046,13 +3046,13 @@
         <v>28751</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,34 +3061,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>992</v>
+      </c>
+      <c r="D17" s="7">
+        <v>688650</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="7">
         <v>1051</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>737669</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="7">
-        <v>992</v>
-      </c>
-      <c r="I17" s="7">
-        <v>688650</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>2043</v>
@@ -3097,13 +3097,13 @@
         <v>1426319</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,34 +3112,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>706928</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>1066</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>748142</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>2084</v>
@@ -3148,18 +3148,18 @@
         <v>1455070</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3179,7 +3179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC1344D-957B-4141-AC9B-11088281D05D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95920095-9A62-4BAA-97B3-A73D3955B32A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3196,7 +3196,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3297,34 +3297,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1794</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>2604</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1794</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3333,13 +3333,13 @@
         <v>4398</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,34 +3348,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>208</v>
+      </c>
+      <c r="D5" s="7">
+        <v>129860</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="7">
         <v>183</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>121560</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="7">
-        <v>208</v>
-      </c>
-      <c r="I5" s="7">
-        <v>129860</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="M5" s="7">
         <v>391</v>
@@ -3384,13 +3384,13 @@
         <v>251420</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,34 +3399,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>398</v>
@@ -3435,13 +3435,13 @@
         <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,31 +3455,31 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>4208</v>
+        <v>3305</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>3305</v>
+        <v>4208</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -3488,13 +3488,13 @@
         <v>7512</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,34 +3503,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>326</v>
+      </c>
+      <c r="D8" s="7">
+        <v>207212</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="7">
         <v>374</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>253853</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" s="7">
-        <v>326</v>
-      </c>
-      <c r="I8" s="7">
-        <v>207212</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="M8" s="7">
         <v>700</v>
@@ -3539,13 +3539,13 @@
         <v>461066</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,34 +3554,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>712</v>
@@ -3590,13 +3590,13 @@
         <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,34 +3607,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2123</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>3148</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2123</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3643,13 +3643,13 @@
         <v>5272</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,34 +3658,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>269</v>
+      </c>
+      <c r="D11" s="7">
+        <v>186776</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="7">
         <v>259</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>185424</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="7">
-        <v>269</v>
-      </c>
-      <c r="I11" s="7">
-        <v>186776</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>528</v>
@@ -3694,13 +3694,13 @@
         <v>372199</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,34 +3709,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>535</v>
@@ -3745,13 +3745,13 @@
         <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,34 +3762,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2051</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2745</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2051</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3798,13 +3798,13 @@
         <v>4796</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,34 +3813,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>243</v>
+      </c>
+      <c r="D14" s="7">
+        <v>171250</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H14" s="7">
         <v>231</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>171303</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H14" s="7">
-        <v>243</v>
-      </c>
-      <c r="I14" s="7">
-        <v>171250</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="M14" s="7">
         <v>474</v>
@@ -3849,13 +3849,13 @@
         <v>342552</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,34 +3864,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>246</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="7">
-        <v>246</v>
-      </c>
-      <c r="I15" s="7">
-        <v>173301</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>481</v>
@@ -3900,13 +3900,13 @@
         <v>347348</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,34 +3917,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7">
+        <v>9273</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="7">
         <v>18</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>12706</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H16" s="7">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7">
-        <v>9273</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -3953,13 +3953,13 @@
         <v>21978</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,34 +3968,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>1046</v>
+      </c>
+      <c r="D17" s="7">
+        <v>695098</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H17" s="7">
         <v>1047</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>732138</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1046</v>
-      </c>
-      <c r="I17" s="7">
-        <v>695098</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>2093</v>
@@ -4004,13 +4004,13 @@
         <v>1427237</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,34 +4019,34 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D18" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>2126</v>
@@ -4055,18 +4055,18 @@
         <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4086,7 +4086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475743C6-FE39-4C30-84DD-FFD15D9EE7E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6972CA-C67C-45D6-9778-69EF17464C99}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4103,7 +4103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4204,49 +4204,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1787</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1810</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1810</v>
+        <v>1787</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>243</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,49 +4255,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>106</v>
+      </c>
+      <c r="D5" s="7">
+        <v>55724</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H5" s="7">
         <v>116</v>
       </c>
-      <c r="D5" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="7">
-        <v>106</v>
-      </c>
       <c r="I5" s="7">
-        <v>55559</v>
+        <v>61444</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>222</v>
       </c>
       <c r="N5" s="7">
-        <v>114061</v>
+        <v>117168</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,49 +4306,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,49 +4359,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5783</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H7" s="7">
         <v>14</v>
       </c>
-      <c r="D7" s="7">
-        <v>8604</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>8816</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M7" s="7">
+        <v>23</v>
+      </c>
+      <c r="N7" s="7">
+        <v>14599</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H7" s="7">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5853</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="M7" s="7">
-        <v>23</v>
-      </c>
-      <c r="N7" s="7">
-        <v>14457</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,49 +4410,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>249</v>
+      </c>
+      <c r="D8" s="7">
+        <v>153516</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H8" s="7">
         <v>262</v>
       </c>
-      <c r="D8" s="7">
-        <v>166695</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H8" s="7">
-        <v>249</v>
-      </c>
       <c r="I8" s="7">
-        <v>152912</v>
+        <v>173738</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>511</v>
       </c>
       <c r="N8" s="7">
-        <v>319606</v>
+        <v>327254</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,49 +4461,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>276</v>
       </c>
-      <c r="D9" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,49 +4514,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6613</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H10" s="7">
         <v>12</v>
       </c>
-      <c r="D10" s="7">
-        <v>9659</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H10" s="7">
-        <v>9</v>
-      </c>
       <c r="I10" s="7">
-        <v>6716</v>
+        <v>10168</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>16375</v>
+        <v>16782</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,49 +4565,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>224</v>
+      </c>
+      <c r="D11" s="7">
+        <v>166459</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H11" s="7">
         <v>231</v>
       </c>
-      <c r="D11" s="7">
-        <v>192819</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H11" s="7">
-        <v>224</v>
-      </c>
       <c r="I11" s="7">
-        <v>169397</v>
+        <v>202322</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>455</v>
       </c>
       <c r="N11" s="7">
-        <v>362216</v>
+        <v>368781</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,49 +4616,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,49 +4669,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8147</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
-        <v>5711</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H13" s="7">
-        <v>11</v>
-      </c>
       <c r="I13" s="7">
-        <v>8333</v>
+        <v>5787</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>14044</v>
+        <v>13935</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,49 +4720,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>331</v>
+      </c>
+      <c r="D14" s="7">
+        <v>267311</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="7">
         <v>334</v>
       </c>
-      <c r="D14" s="7">
-        <v>283713</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H14" s="7">
-        <v>331</v>
-      </c>
       <c r="I14" s="7">
-        <v>252300</v>
+        <v>299696</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>665</v>
       </c>
       <c r="N14" s="7">
-        <v>536013</v>
+        <v>567005</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,46 +4774,46 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,49 +4824,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7">
+        <v>22331</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H16" s="7">
         <v>34</v>
       </c>
-      <c r="D16" s="7">
-        <v>23974</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>24771</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H16" s="7">
-        <v>32</v>
-      </c>
-      <c r="I16" s="7">
-        <v>22713</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
       </c>
       <c r="N16" s="7">
-        <v>46687</v>
+        <v>47102</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,49 +4875,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>910</v>
+      </c>
+      <c r="D17" s="7">
+        <v>643009</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="7">
         <v>943</v>
       </c>
-      <c r="D17" s="7">
-        <v>701730</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>737201</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="H17" s="7">
-        <v>910</v>
-      </c>
-      <c r="I17" s="7">
-        <v>630166</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>24</v>
       </c>
       <c r="M17" s="7">
         <v>1853</v>
       </c>
       <c r="N17" s="7">
-        <v>1331896</v>
+        <v>1380210</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,54 +4926,54 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>942</v>
+      </c>
+      <c r="D18" s="7">
+        <v>665340</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>977</v>
       </c>
-      <c r="D18" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
       <c r="I18" s="7">
-        <v>652879</v>
+        <v>761972</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>1919</v>
       </c>
       <c r="N18" s="7">
-        <v>1378583</v>
+        <v>1427312</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
